--- a/ExcelToWord/excelexample.xlsx
+++ b/ExcelToWord/excelexample.xlsx
@@ -344,21 +344,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="I7" sqref="I7"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <x:c r="A1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</x:worksheet>
 </file>
--- a/ExcelToWord/excelexample.xlsx
+++ b/ExcelToWord/excelexample.xlsx
@@ -24,11 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>ipsum</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <x:si>
+    <x:t>ipsum</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
